--- a/System Design and Documentation/BOM/Parts List and Cost Analysis.xlsx
+++ b/System Design and Documentation/BOM/Parts List and Cost Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1673" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FBE5CD-C846-4A21-8A21-DC91D942C48C}"/>
+  <xr:revisionPtr revIDLastSave="1677" documentId="11_2D1AD5278A8FA8C453CD502A9EC1D0FB7A0DBF5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B8E81D0-53FB-42A1-AF35-8D8EFD9FDC06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="316">
   <si>
     <t>$/kg</t>
   </si>
@@ -727,12 +727,6 @@
     <t>1/4 Inch OD PVC Clear Vinyl Tubing</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B0BM8X97NS?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
-  </si>
-  <si>
-    <t>Mortice Latch 35mm</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/dp/B08MZMK2JW?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
   </si>
   <si>
@@ -1007,6 +1001,15 @@
   </si>
   <si>
     <t>Cost of tools</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CQ6Y1MRY?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Mortice Latch (25mm)</t>
+  </si>
+  <si>
+    <t>Smallest off the shelf latch I could find. I feel like a more purpose built construction could be found, but I haven't been able to find anything</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,21 +1446,21 @@
   </sheetPr>
   <dimension ref="A1:O446"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="10" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F1" t="s">
         <v>79</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1554,7 @@
       </c>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>45632.707033796294</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>45642.655523842594</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>45642.655523842594</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>45632.714402083337</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>45632.711294791668</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>45632.720302083333</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -1833,7 +1832,7 @@
         <v>45794.977847569447</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>15</v>
@@ -1872,7 +1871,7 @@
         <v>45794.977792361111</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
@@ -1910,7 +1909,7 @@
         <v>45643.561000578702</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>37</v>
@@ -1948,7 +1947,7 @@
         <v>45694.801739120368</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>39</v>
@@ -1986,7 +1985,7 @@
         <v>45632.721292361108</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -2024,7 +2023,7 @@
         <v>45794.570570717595</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>220</v>
@@ -2062,7 +2061,7 @@
         <v>45794.571933912041</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>140</v>
@@ -2100,7 +2099,7 @@
         <v>45794.746052199072</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -2138,7 +2137,7 @@
         <v>45643.711436689817</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>21</v>
@@ -2179,7 +2178,7 @@
         <v>45642.687478356478</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>45642.535365509262</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>45643.562765972223</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>45643.711616666667</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>45642.648433912036</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>45642.647163541667</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>45643.882129398145</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>45684.7621349537</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>45646.886742939816</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>45746.871895486111</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>45646.890947222222</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>49</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>45794.746517013889</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>45696.724602314818</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -2657,16 +2656,16 @@
         <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="H32">
-        <v>8.35</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2677,14 +2676,17 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="11"/>
-        <v>8.35</v>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="L32" t="s">
+        <v>315</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">IF(OR(CELL("address")=CELL("address",A32),CELL("address")=CELL("address",B32),CELL("address")=CELL("address",C32),CELL("address")=CELL("address",D32),CELL("address")=CELL("address",E32),CELL("address")=CELL("address",F32),CELL("address")=CELL("address",G32),CELL("address")=CELL("address",H32),CELL("address")=CELL("address",I32)),NOW(),M32)</f>
-        <v>45696.724602314818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45809.893460300926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>45794.948679976849</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>45794.94740902778</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>11.6</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H35">
         <v>27.5</v>
@@ -2804,7 +2806,7 @@
         <v>45794.991633564816</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>45699.639482407409</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>45794.992589236113</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>45699.639453356482</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>45759.449647222224</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>45794.930470833337</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>45795.009833217591</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>45759.449647222224</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -3086,16 +3088,16 @@
         <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H43">
         <v>7.99</v>
@@ -3112,14 +3114,14 @@
         <v>7.99</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M43" s="3" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">IF(OR(CELL("address")=CELL("address",A43),CELL("address")=CELL("address",B43),CELL("address")=CELL("address",C43),CELL("address")=CELL("address",D43),CELL("address")=CELL("address",E43),CELL("address")=CELL("address",F43),CELL("address")=CELL("address",G43),CELL("address")=CELL("address",H43),CELL("address")=CELL("address",I43)),NOW(),M43)</f>
         <v>45794.917324652779</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
@@ -3127,10 +3129,10 @@
         <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -3157,7 +3159,7 @@
         <v>45794.914960069444</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -3165,16 +3167,16 @@
         <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F45">
         <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H45">
         <v>8.99</v>
@@ -3195,7 +3197,7 @@
         <v>45794.89084699074</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>172</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3236,7 +3238,7 @@
         <v>45794.918360300922</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -3250,13 +3252,13 @@
         <v>172</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H47">
         <v>24.99</v>
@@ -3277,7 +3279,7 @@
         <v>45794.918360300922</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>45794.573409143515</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -3353,7 +3355,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>45661.896769675928</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>49</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>45795.01019872685</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>49</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>45661.891742361113</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>45661.895691898149</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>49</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3739,7 +3741,7 @@
         <v>45795.010351851852</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>178</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>45795.010864004631</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>45646.897749305557</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>49</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>45661.896488078703</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -3894,7 +3896,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>49</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>49</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>32</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H65">
         <v>9.69</v>
@@ -3974,7 +3976,7 @@
         <v>45794.749220138889</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>49</v>
       </c>
@@ -3985,13 +3987,13 @@
         <v>180</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F66">
         <v>32</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H66">
         <v>6.99</v>
@@ -4012,7 +4014,7 @@
         <v>45794.878334374996</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>49</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>45646.883798726849</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>45699.641425578702</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>49</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>45794.878587500003</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>63</v>
       </c>
@@ -4143,13 +4145,13 @@
         <v>195</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F70">
         <v>4</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4170,7 +4172,7 @@
         <v>45794.878587500003</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>63</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4208,7 +4210,7 @@
         <v>45794.761007754627</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>49</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>45661.897263078703</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>49</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>45795.005495370373</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>49</v>
       </c>
@@ -4295,16 +4297,16 @@
         <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F74">
         <v>100</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H74">
         <v>5.59</v>
@@ -4325,15 +4327,15 @@
         <v>45794.759724768519</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>207</v>
@@ -4342,7 +4344,7 @@
         <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H75">
         <v>9.99</v>
@@ -4363,15 +4365,15 @@
         <v>45794.941684722224</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>209</v>
@@ -4401,15 +4403,15 @@
         <v>45794.900951041665</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>210</v>
@@ -4418,7 +4420,7 @@
         <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H77">
         <v>31.18</v>
@@ -4439,24 +4441,24 @@
         <v>45794.879682870371</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H78">
         <v>6.99</v>
@@ -4477,24 +4479,24 @@
         <v>45795.000866319446</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="F79">
         <v>4</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H79">
         <v>8.49</v>
@@ -4515,24 +4517,24 @@
         <v>45794.934243055555</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H80">
         <v>13.99</v>
@@ -4553,24 +4555,24 @@
         <v>45794.934243055555</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H81">
         <v>26.99</v>
@@ -4591,24 +4593,24 @@
         <v>45794.934243055555</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H82">
         <v>28.9</v>
@@ -4629,24 +4631,24 @@
         <v>45794.998487847224</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H83">
         <v>40</v>
@@ -4667,24 +4669,24 @@
         <v>45794.998487847224</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="F84">
         <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H84">
         <v>22</v>
@@ -4705,7 +4707,7 @@
         <v>45794.998487847224</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>49</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>45795.012799074073</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>49</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>45795.005366666664</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>49</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>45794.895426273149</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>49</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>45795.005954282409</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>49</v>
       </c>
@@ -4871,13 +4873,13 @@
         <v>85</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H89">
         <v>13.99</v>
@@ -4898,7 +4900,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>49</v>
       </c>
@@ -4909,13 +4911,13 @@
         <v>85</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H90">
         <v>7.99</v>
@@ -4936,7 +4938,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>49</v>
       </c>
@@ -4947,13 +4949,13 @@
         <v>85</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H91">
         <v>9.99</v>
@@ -4974,7 +4976,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>49</v>
       </c>
@@ -4985,13 +4987,13 @@
         <v>85</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H92">
         <v>4.99</v>
@@ -5012,7 +5014,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>49</v>
       </c>
@@ -5020,13 +5022,13 @@
         <v>85</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H93">
         <v>18.98</v>
@@ -5047,7 +5049,7 @@
         <v>45795.013092476853</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>49</v>
       </c>
@@ -5058,13 +5060,13 @@
         <v>85</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H94">
         <v>9.99</v>
@@ -5085,7 +5087,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>49</v>
       </c>
@@ -5093,13 +5095,13 @@
         <v>85</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H95">
         <v>9.2899999999999991</v>
@@ -5120,7 +5122,7 @@
         <v>45795.013152777778</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>49</v>
       </c>
@@ -5131,13 +5133,13 @@
         <v>85</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H96">
         <v>15.99</v>
@@ -5158,7 +5160,7 @@
         <v>45794.996764120369</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>49</v>
       </c>
@@ -5169,13 +5171,13 @@
         <v>85</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H97">
         <v>7.49</v>
@@ -5196,7 +5198,7 @@
         <v>45798.956146180557</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>49</v>
       </c>
@@ -5207,16 +5209,16 @@
         <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F98">
         <v>4</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H98">
         <v>6.99</v>
@@ -5237,7 +5239,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>49</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>199</v>
@@ -5274,14 +5276,14 @@
         <v>18</v>
       </c>
       <c r="L99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M99" s="3" cm="1">
         <f t="array" aca="1" ref="M99" ca="1">IF(OR(CELL("address")=CELL("address",A99),CELL("address")=CELL("address",B99),CELL("address")=CELL("address",C99),CELL("address")=CELL("address",D99),CELL("address")=CELL("address",E99),CELL("address")=CELL("address",F99),CELL("address")=CELL("address",G99),CELL("address")=CELL("address",H99),CELL("address")=CELL("address",I99)),NOW(),M99)</f>
         <v>45795.004241550923</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>49</v>
       </c>
@@ -5292,16 +5294,16 @@
         <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H100">
         <v>8.99</v>
@@ -5322,7 +5324,7 @@
         <v>45795.004385532404</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>49</v>
       </c>
@@ -5333,16 +5335,16 @@
         <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H101">
         <v>15.59</v>
@@ -5359,14 +5361,14 @@
         <v>15.59</v>
       </c>
       <c r="L101" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M101" s="3" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">IF(OR(CELL("address")=CELL("address",A101),CELL("address")=CELL("address",B101),CELL("address")=CELL("address",C101),CELL("address")=CELL("address",D101),CELL("address")=CELL("address",E101),CELL("address")=CELL("address",F101),CELL("address")=CELL("address",G101),CELL("address")=CELL("address",H101),CELL("address")=CELL("address",I101)),NOW(),M101)</f>
         <v>45794.921978819446</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>49</v>
       </c>
@@ -5377,13 +5379,13 @@
         <v>85</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H102">
         <v>12.99</v>
@@ -5401,10 +5403,10 @@
       </c>
       <c r="M102" s="3" cm="1">
         <f t="array" aca="1" ref="M102" ca="1">IF(OR(CELL("address")=CELL("address",A102),CELL("address")=CELL("address",B102),CELL("address")=CELL("address",C102),CELL("address")=CELL("address",D102),CELL("address")=CELL("address",E102),CELL("address")=CELL("address",F102),CELL("address")=CELL("address",G102),CELL("address")=CELL("address",H102),CELL("address")=CELL("address",I102)),NOW(),M102)</f>
-        <v>45794.996380555553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45809.837934374998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>49</v>
       </c>
@@ -5415,13 +5417,13 @@
         <v>85</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H103">
         <v>10.99</v>
@@ -5442,7 +5444,7 @@
         <v>45794.996380555553</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>49</v>
       </c>
@@ -5453,13 +5455,13 @@
         <v>85</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H104">
         <v>11.99</v>
@@ -5480,7 +5482,7 @@
         <v>45794.88801412037</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>49</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>45795.006290509256</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>49</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>45643.709466666667</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>49</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>45642.605838310184</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>49</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>45643.709010995372</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>49</v>
       </c>
@@ -5658,10 +5660,10 @@
         <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -5691,7 +5693,7 @@
         <v>45794.999953935185</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>49</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>111</v>
@@ -5732,7 +5734,7 @@
         <v>45794.983736458336</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>49</v>
       </c>
@@ -5740,16 +5742,16 @@
         <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H111">
         <v>5.99</v>
@@ -5770,7 +5772,7 @@
         <v>45795.012884837961</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>49</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>85</v>
       </c>
       <c r="D112" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>136</v>
@@ -5811,7 +5813,7 @@
         <v>45643.705772337962</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>49</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>45643.707148842594</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>49</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>45643.699993402777</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>49</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>45663.844060416668</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>49</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>45663.844104976852</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>49</v>
       </c>
@@ -6013,12 +6015,12 @@
         <v>45795.502180208336</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>30</v>
@@ -6048,12 +6050,12 @@
         <v>45798.646983333332</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>124</v>
@@ -6080,12 +6082,12 @@
         <v>45798.645414004626</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C120" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D120" t="s">
         <v>82</v>
@@ -6118,982 +6120,982 @@
         <v>45794.746116550923</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M128"/>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M129"/>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M130"/>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M131"/>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M132"/>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M133"/>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M134"/>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M135"/>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M136"/>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M137"/>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M138"/>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M139"/>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M140"/>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M141"/>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M142"/>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M143"/>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M144"/>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M145"/>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M146"/>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M147"/>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M148"/>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M149"/>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M150"/>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M151"/>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M152"/>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M153"/>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M154"/>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M155"/>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M156"/>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M157"/>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M158"/>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M159"/>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M160"/>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M161"/>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M162"/>
     </row>
-    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M163"/>
     </row>
-    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M164"/>
     </row>
-    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M165"/>
     </row>
-    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M166"/>
     </row>
-    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M167"/>
     </row>
-    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M168"/>
     </row>
-    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M169"/>
     </row>
-    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M170"/>
     </row>
-    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M171"/>
     </row>
-    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M172"/>
     </row>
-    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M173"/>
     </row>
-    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M174"/>
     </row>
-    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M175"/>
     </row>
-    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M176"/>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M177"/>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M178"/>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M179"/>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M180"/>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M181"/>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M182"/>
     </row>
-    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M183"/>
     </row>
-    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M184"/>
     </row>
-    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M185"/>
     </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M186"/>
     </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M187"/>
     </row>
-    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M188"/>
     </row>
-    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M189"/>
     </row>
-    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M190"/>
     </row>
-    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M191"/>
     </row>
-    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M192"/>
     </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M193"/>
     </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M194"/>
     </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M195"/>
     </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M196"/>
     </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M197"/>
     </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M198"/>
     </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M199"/>
     </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M200"/>
     </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M201"/>
     </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M202"/>
     </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M203"/>
     </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M204"/>
     </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M205"/>
     </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M206"/>
     </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M207"/>
     </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M208"/>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M209"/>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M210"/>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M211"/>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M212"/>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M213"/>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M214"/>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M215"/>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M216"/>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M217"/>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M218"/>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M219"/>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M220"/>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M221"/>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M222"/>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M223"/>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M224"/>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M225"/>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M226"/>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M227"/>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M228"/>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M229"/>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M230"/>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M231"/>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M232"/>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M233"/>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M234"/>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M235"/>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M236"/>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M237"/>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M238"/>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M239"/>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M240"/>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M241"/>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M242"/>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M243"/>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M244"/>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M245"/>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M246"/>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M247"/>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M248"/>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M249"/>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M250"/>
     </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M251"/>
     </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M252"/>
     </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M253"/>
     </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M254"/>
     </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M255"/>
     </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M256"/>
     </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M257"/>
     </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M258"/>
     </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M259"/>
     </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M260"/>
     </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M261"/>
     </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M262"/>
     </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M263"/>
     </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M264"/>
     </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M265"/>
     </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M266"/>
     </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M267"/>
     </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M268"/>
     </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M269"/>
     </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M270"/>
     </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M271"/>
     </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M272"/>
     </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M273"/>
     </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M274"/>
     </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M275"/>
     </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M276"/>
     </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M277"/>
     </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M278"/>
     </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M279"/>
     </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M280"/>
     </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M281"/>
     </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M282"/>
     </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M283"/>
     </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M284"/>
     </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M285"/>
     </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M286"/>
     </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M287"/>
     </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M288"/>
     </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M289"/>
     </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M290"/>
     </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M291"/>
     </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M292"/>
     </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M293"/>
     </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M294"/>
     </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M295"/>
     </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M296"/>
     </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M297"/>
     </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M298"/>
     </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M299"/>
     </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M300"/>
     </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M301"/>
     </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M302"/>
     </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M303"/>
     </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M304"/>
     </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M305"/>
     </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M306"/>
     </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M307"/>
     </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M308"/>
     </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M309"/>
     </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M310"/>
     </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M311"/>
     </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M312"/>
     </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M313"/>
     </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M314"/>
     </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M315"/>
     </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M316"/>
     </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M317"/>
     </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M318"/>
     </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M319"/>
     </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M320"/>
     </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M321"/>
     </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M322"/>
     </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M323"/>
     </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M324"/>
     </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M325"/>
     </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M326"/>
     </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M327"/>
     </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M328"/>
     </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M329"/>
     </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M330"/>
     </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M331"/>
     </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M332"/>
     </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M333"/>
     </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M334"/>
     </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M335"/>
     </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M336"/>
     </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M337"/>
     </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M338"/>
     </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M339"/>
     </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M340"/>
     </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M341"/>
     </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M342"/>
     </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M343"/>
     </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M344"/>
     </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M345"/>
     </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M346"/>
     </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M347"/>
     </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M348"/>
     </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M349"/>
     </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M350"/>
     </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M351"/>
     </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M352"/>
     </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M353"/>
     </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M354"/>
     </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M355"/>
     </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M356"/>
     </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M357"/>
     </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M358"/>
     </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M359"/>
     </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M360"/>
     </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M361"/>
     </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M362"/>
     </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M363"/>
     </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M364"/>
     </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M365"/>
     </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M366"/>
     </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M367"/>
     </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M368"/>
     </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M369"/>
     </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M370"/>
     </row>
-    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M371"/>
     </row>
-    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M372"/>
     </row>
-    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M373"/>
     </row>
-    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M374"/>
     </row>
-    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M375"/>
     </row>
-    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M376"/>
     </row>
-    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M377"/>
     </row>
-    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M378"/>
     </row>
-    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M379"/>
     </row>
-    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M380"/>
     </row>
-    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M381"/>
     </row>
-    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M382"/>
     </row>
-    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M383"/>
     </row>
-    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M384"/>
     </row>
-    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M385"/>
     </row>
-    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M386"/>
     </row>
-    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M387"/>
     </row>
-    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M388"/>
     </row>
-    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M389"/>
     </row>
-    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M390"/>
     </row>
-    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M391"/>
     </row>
-    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M392"/>
     </row>
-    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M393"/>
     </row>
-    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M394"/>
     </row>
-    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M395"/>
     </row>
-    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M396"/>
     </row>
-    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M397"/>
     </row>
-    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M398"/>
     </row>
-    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M399"/>
     </row>
-    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M400"/>
     </row>
-    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M401"/>
     </row>
-    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M402"/>
     </row>
-    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M403"/>
     </row>
-    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M404"/>
     </row>
-    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M405"/>
     </row>
-    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M406"/>
     </row>
-    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M407"/>
     </row>
-    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M408"/>
     </row>
-    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M409"/>
     </row>
-    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M410"/>
     </row>
-    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M411"/>
     </row>
-    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M412"/>
     </row>
-    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M413"/>
     </row>
-    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M414"/>
     </row>
-    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M415"/>
     </row>
-    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M416"/>
     </row>
-    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M417"/>
     </row>
-    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M418"/>
     </row>
-    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M419"/>
     </row>
-    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M420"/>
     </row>
-    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M421"/>
     </row>
-    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M422"/>
     </row>
-    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M423"/>
     </row>
-    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M424"/>
     </row>
-    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M425"/>
     </row>
-    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M426"/>
     </row>
-    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M427"/>
     </row>
-    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M428"/>
     </row>
-    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M429"/>
     </row>
-    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M430"/>
     </row>
-    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M431"/>
     </row>
-    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M432"/>
     </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M433"/>
     </row>
-    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M434"/>
     </row>
-    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M435"/>
     </row>
-    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M436"/>
     </row>
-    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M437"/>
     </row>
-    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M438"/>
     </row>
-    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M439"/>
     </row>
-    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M440"/>
     </row>
-    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M441"/>
     </row>
-    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M442"/>
     </row>
-    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M443"/>
     </row>
-    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M444"/>
     </row>
-    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M445"/>
     </row>
-    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M446"/>
     </row>
   </sheetData>
@@ -7212,52 +7214,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D39259-A685-447E-BA98-114E78E460C1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1">
         <f>SUM('Parts &amp; Assembly List'!F3:F120)</f>
         <v>496.6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2">
         <f>SUM('Parts &amp; Assembly List'!K3:K463)</f>
-        <v>2251.9899999999989</v>
+        <v>2252.4299999999985</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3">
         <f>B2/B1</f>
-        <v>4.534816753926699</v>
+        <v>4.5357027788964928</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <f>SUM('Tools Needed'!G9:G20)</f>
@@ -7280,12 +7282,12 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>155</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
         <v>184</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>185</v>
       </c>
@@ -7318,34 +7320,34 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G15">
         <v>11.79</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G17">
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G20">
         <v>34.99</v>
@@ -7372,20 +7374,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -7393,36 +7395,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7438,11 +7440,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
